--- a/data/trans_dic/P2A_ner_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005838547789774026</v>
+        <v>0.005979164563408276</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004241272599052799</v>
+        <v>0.005792868045576848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01314935241839532</v>
+        <v>0.01314197174809213</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01167425832942828</v>
+        <v>0.01196267120466468</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.007023544112630432</v>
+        <v>0.006725112701119446</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02235925821775202</v>
+        <v>0.02420291726353901</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006146175455716336</v>
+        <v>0.006159670476071913</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0105005502482609</v>
+        <v>0.01126071520258069</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.007854464821332041</v>
+        <v>0.008194758068848809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02112634413760741</v>
+        <v>0.02216079591605932</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.007170415081015311</v>
+        <v>0.006856546504287061</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0271520526586741</v>
+        <v>0.02778784864291022</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02665688235091293</v>
+        <v>0.02854277584777391</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04580269980671375</v>
+        <v>0.04471302372732597</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04453843824314306</v>
+        <v>0.04495013937778685</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04039270327259788</v>
+        <v>0.03726717894563362</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03243575688385172</v>
+        <v>0.0318511251518268</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06384252267032192</v>
+        <v>0.06510036636229349</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05501464125210089</v>
+        <v>0.05331002209536623</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02683638399290551</v>
+        <v>0.02900906249452762</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02382161396901232</v>
+        <v>0.02384838280468097</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04680795957218801</v>
+        <v>0.04848195591813043</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04017474353860271</v>
+        <v>0.03723001338211434</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.03454855629001685</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.03531288443890933</v>
+        <v>0.03531288443890932</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02113039471883274</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01209228577230132</v>
+        <v>0.01197800795830458</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006727648354744861</v>
+        <v>0.006938983122955319</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0128775510041759</v>
+        <v>0.01315115882031447</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01033497824466096</v>
+        <v>0.0100151232231886</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01284060611849948</v>
+        <v>0.01156857947541138</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0181666249119929</v>
+        <v>0.01770057831996023</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02237958220176983</v>
+        <v>0.02189817643841559</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02023050567032086</v>
+        <v>0.02025625077055708</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01459436891538584</v>
+        <v>0.01433914702969201</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01501735819656974</v>
+        <v>0.0145364255922761</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02024558251577296</v>
+        <v>0.02016826019236423</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01830498617546786</v>
+        <v>0.01907158001824939</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03368253609022669</v>
+        <v>0.03389660142705408</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02437360389934891</v>
+        <v>0.02470887545406518</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03946976332388619</v>
+        <v>0.04119650745553975</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05446062062330282</v>
+        <v>0.05193751687269595</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03852658390610796</v>
+        <v>0.03639396695595384</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04734741429271068</v>
+        <v>0.04498760480270837</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05209821451614937</v>
+        <v>0.05367819301208512</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05860615201264872</v>
+        <v>0.05784938798762066</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03059837222106176</v>
+        <v>0.03024711996713756</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03128345389959415</v>
+        <v>0.03071645724839578</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03901276815382029</v>
+        <v>0.04032233555101838</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04526740896905944</v>
+        <v>0.04817148458004969</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.05856799265817307</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03078249405180695</v>
+        <v>0.03078249405180694</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0207986054560534</v>
+        <v>0.02114669096136549</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03136570434807984</v>
+        <v>0.03062774480641781</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02506502425873405</v>
+        <v>0.02474678525617939</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01835817734801649</v>
+        <v>0.01877435790109802</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03153271519538257</v>
+        <v>0.03174016293718637</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0326064446154252</v>
+        <v>0.03335519646300668</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06215966651734613</v>
+        <v>0.06200991250557605</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02086710680925185</v>
+        <v>0.01971925315682676</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02983394481208574</v>
+        <v>0.03046092902861978</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03552732319132981</v>
+        <v>0.03560217386219895</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04692640569412986</v>
+        <v>0.04619675071358511</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02154353215040549</v>
+        <v>0.02236419518259551</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05151017076764444</v>
+        <v>0.05296004773187667</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06571542272339588</v>
+        <v>0.06467450841751089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05480794760548723</v>
+        <v>0.05409732553669658</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05064917605628366</v>
+        <v>0.04887786932454658</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06491979750516159</v>
+        <v>0.06547686682146621</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.067303834124048</v>
+        <v>0.06667521932685978</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1009653225967954</v>
+        <v>0.103360202360377</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04517313410708902</v>
+        <v>0.04424433354668999</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05385595360383957</v>
+        <v>0.0533432940005547</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06082065999698661</v>
+        <v>0.06040077710198932</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07272999625467635</v>
+        <v>0.07142756237689608</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04130964352129677</v>
+        <v>0.04208801070601258</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.05275452625120494</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04376021352908769</v>
+        <v>0.04376021352908768</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05569062698226055</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01200681886968001</v>
+        <v>0.01195753318918187</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01675757995954941</v>
+        <v>0.01811115766667033</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03843237703838696</v>
+        <v>0.03768489950424749</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03036824742122564</v>
+        <v>0.03002365378333092</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.036584211947676</v>
+        <v>0.03842085104084738</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03763955855972491</v>
+        <v>0.03747996528153527</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09777143901772549</v>
+        <v>0.09726031459741898</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04101784055581518</v>
+        <v>0.04095091427300471</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02823022461113189</v>
+        <v>0.02865137821232907</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03096351344763001</v>
+        <v>0.03109661859191864</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07257568264243243</v>
+        <v>0.07233048418159788</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03896282725819516</v>
+        <v>0.03935456344097571</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03930443159919887</v>
+        <v>0.03926485299771821</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04995173571702995</v>
+        <v>0.05175557025596614</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07394648762661794</v>
+        <v>0.0728873573309351</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0612248459361204</v>
+        <v>0.06283843325917593</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07805492185054745</v>
+        <v>0.08103345588649281</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07312501464806347</v>
+        <v>0.07225788295163532</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1500875275811206</v>
+        <v>0.1518037042129949</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06767004173996014</v>
+        <v>0.06731979469725956</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05287283712984041</v>
+        <v>0.05230817352511382</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05488819028343626</v>
+        <v>0.0549753988557792</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1053385171967435</v>
+        <v>0.1061548411097337</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06063668581067887</v>
+        <v>0.05877484383255636</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1876378358729338</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.06603731980352864</v>
+        <v>0.06603731980352866</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.04852823833968282</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02383567407611254</v>
+        <v>0.02383137935248722</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01810911823670321</v>
+        <v>0.01868866855653544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04828682778937923</v>
+        <v>0.048786579838925</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0267085581323642</v>
+        <v>0.02789897340246727</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0363338613427449</v>
+        <v>0.03626998822338158</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03705298425932551</v>
+        <v>0.03695806083885331</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1563640435938913</v>
+        <v>0.1486481434303534</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05117567261694011</v>
+        <v>0.05023744120777181</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03485385307233829</v>
+        <v>0.03468388727021425</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03194429129724773</v>
+        <v>0.03170474641175727</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.109384467040192</v>
+        <v>0.107222568805365</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04301137559948683</v>
+        <v>0.04217835569057762</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06409275841997321</v>
+        <v>0.06524374879813566</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05405758201538256</v>
+        <v>0.0541337115992949</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09914688302352964</v>
+        <v>0.100662173555001</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05862456327912291</v>
+        <v>0.05950893760097941</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07949620709661068</v>
+        <v>0.08178154756273293</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08054414638443462</v>
+        <v>0.08034957046271859</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2280865259409234</v>
+        <v>0.2231698149817769</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08285878211921695</v>
+        <v>0.0841379771645534</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06579713294167949</v>
+        <v>0.06428587433903848</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06012589167698352</v>
+        <v>0.05988015527157037</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1547887243601458</v>
+        <v>0.1542262780861283</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06542138668724785</v>
+        <v>0.06423894756961412</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1643151683022334</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06504098224066897</v>
+        <v>0.06504098224066895</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.05770256137607152</v>
@@ -1377,7 +1377,7 @@
         <v>0.1064128334651011</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.05059068953917854</v>
+        <v>0.05059068953917855</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0228173213671251</v>
+        <v>0.02316387210486661</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02389011803721705</v>
+        <v>0.02474491068458383</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02357737809247758</v>
+        <v>0.02387066624577477</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02308228575834177</v>
+        <v>0.02181452180547563</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0480221148809865</v>
+        <v>0.04847802694517896</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06817406680173316</v>
+        <v>0.06611944200695992</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1279912846166574</v>
+        <v>0.1264900007051411</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05042820557926082</v>
+        <v>0.04902835090912912</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.042175445353094</v>
+        <v>0.04137640244560681</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.05308540224628391</v>
+        <v>0.05364887626406701</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08636344501003934</v>
+        <v>0.0822414128633278</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03963354096590455</v>
+        <v>0.03973672414553048</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06530483736619452</v>
+        <v>0.06609210915335872</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07383664272449866</v>
+        <v>0.0718578417321567</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0649462019422072</v>
+        <v>0.06539900525677926</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05669517748909266</v>
+        <v>0.05505554118277464</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1008117084700756</v>
+        <v>0.09883749845796447</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1243796334125227</v>
+        <v>0.1259955799656738</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2081694974117902</v>
+        <v>0.2051414684984499</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08690545401402493</v>
+        <v>0.08266773488430744</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07795389133576161</v>
+        <v>0.0773058417927906</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.09237280276839523</v>
+        <v>0.09198339168392343</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1333753392105833</v>
+        <v>0.1312185465742932</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.06353816598928137</v>
+        <v>0.06390038019671923</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.1696606012551782</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.05747989401593011</v>
+        <v>0.0574798940159301</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.05630111740299585</v>
@@ -1513,7 +1513,7 @@
         <v>0.1365921520446895</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.05600001638372229</v>
+        <v>0.05600001638372228</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01689893245976968</v>
+        <v>0.01654200616567674</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02468865731712952</v>
+        <v>0.02434977288955831</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05588840783749839</v>
+        <v>0.05542570702311785</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03268396843185489</v>
+        <v>0.03490751989229081</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04470278638197604</v>
+        <v>0.04499003924578343</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03944271425526516</v>
+        <v>0.04131669018501861</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1315974172852328</v>
+        <v>0.1306142068371663</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04274654793074314</v>
+        <v>0.04292826418147165</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03857072638883877</v>
+        <v>0.03982759555640269</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.04057375245304652</v>
+        <v>0.04059857226411839</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1095192331410306</v>
+        <v>0.1086452177587537</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04360834989119536</v>
+        <v>0.04396136897784728</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06780515290752256</v>
+        <v>0.06559899059163407</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08673576950646134</v>
+        <v>0.08910814437400037</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1227643550852974</v>
+        <v>0.1197445010748628</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07740095321020238</v>
+        <v>0.07821510909472552</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1011761015368441</v>
+        <v>0.1014169680853773</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08930372538120337</v>
+        <v>0.09305499569907365</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2127928694536427</v>
+        <v>0.2178300377141325</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07517200087419439</v>
+        <v>0.07458697041621468</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07871683770869169</v>
+        <v>0.08249424509915766</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.07979963242463574</v>
+        <v>0.08021058382055668</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1696326194309643</v>
+        <v>0.1666424858717513</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06955097250570852</v>
+        <v>0.07173512134191398</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.1102538922748162</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.04809481176350057</v>
+        <v>0.04809481176350056</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.03694152896909649</v>
@@ -1649,7 +1649,7 @@
         <v>0.07839479329151855</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.04152870229499092</v>
+        <v>0.04152870229499091</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02206400712316557</v>
+        <v>0.02201620547531691</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02475570453097915</v>
+        <v>0.0248041763386545</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03829418966934558</v>
+        <v>0.03858304280917845</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02832844147691267</v>
+        <v>0.02803759447404517</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.03919172628387023</v>
+        <v>0.03885182444049251</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04213703710780124</v>
+        <v>0.04177398391423003</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1001136734966296</v>
+        <v>0.1007488491624178</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04250782549045935</v>
+        <v>0.04280583955611527</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03292772153812926</v>
+        <v>0.03226855478867166</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03549056294749885</v>
+        <v>0.03554914311377162</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07154409376801985</v>
+        <v>0.07209966493577387</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.03701404221082222</v>
+        <v>0.03731728425569844</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03398913916228714</v>
+        <v>0.03433946607954604</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03688922285453251</v>
+        <v>0.03707978731597227</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05247921054564728</v>
+        <v>0.05352888622643755</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.0412130449731771</v>
+        <v>0.04142558111685722</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05358341897763245</v>
+        <v>0.05426981072098378</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05709469365034277</v>
+        <v>0.05654822531355622</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1224556491772921</v>
+        <v>0.1225624818039114</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05410845225639486</v>
+        <v>0.05455467979734376</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04191629888241421</v>
+        <v>0.04195306218192644</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04536867160329198</v>
+        <v>0.04536884175255296</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.08470088887638755</v>
+        <v>0.08566991677627277</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04612465339566971</v>
+        <v>0.04604764883757766</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2885</v>
+        <v>2954</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1926</v>
+        <v>2631</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5516</v>
+        <v>5513</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5458</v>
+        <v>5592</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3022</v>
+        <v>2893</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8849</v>
+        <v>9578</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2228</v>
+        <v>2233</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>10097</v>
+        <v>10828</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6946</v>
+        <v>7247</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17223</v>
+        <v>18066</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5523</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13415</v>
+        <v>13729</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12106</v>
+        <v>12963</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19213</v>
+        <v>18755</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18162</v>
+        <v>18330</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18883</v>
+        <v>17422</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13955</v>
+        <v>13703</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25266</v>
+        <v>25764</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19943</v>
+        <v>19326</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>25805</v>
+        <v>27894</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>21067</v>
+        <v>21091</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>38159</v>
+        <v>39523</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>30947</v>
+        <v>28678</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8894</v>
+        <v>8810</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4622</v>
+        <v>4768</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7604</v>
+        <v>7766</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4929</v>
+        <v>4776</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8032</v>
+        <v>7236</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11086</v>
+        <v>10802</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12612</v>
+        <v>12341</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10150</v>
+        <v>10163</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>19863</v>
+        <v>19515</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>19483</v>
+        <v>18859</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>23364</v>
+        <v>23275</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>17914</v>
+        <v>18664</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24773</v>
+        <v>24931</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16747</v>
+        <v>16977</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23307</v>
+        <v>24326</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25972</v>
+        <v>24768</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24098</v>
+        <v>22764</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>28894</v>
+        <v>27454</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>29360</v>
+        <v>30250</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>29405</v>
+        <v>29025</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>41644</v>
+        <v>41166</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>40585</v>
+        <v>39850</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>45022</v>
+        <v>46534</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>44300</v>
+        <v>47142</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13283</v>
+        <v>13506</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21387</v>
+        <v>20884</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16771</v>
+        <v>16558</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11397</v>
+        <v>11656</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>21750</v>
+        <v>21893</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>23178</v>
+        <v>23711</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>41112</v>
+        <v>41012</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13004</v>
+        <v>12289</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>39632</v>
+        <v>40465</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>49479</v>
+        <v>49584</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>62435</v>
+        <v>61464</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>26801</v>
+        <v>27822</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>32898</v>
+        <v>33824</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>44809</v>
+        <v>44099</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36672</v>
+        <v>36196</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31445</v>
+        <v>30345</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>44778</v>
+        <v>45162</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>47843</v>
+        <v>47396</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>66777</v>
+        <v>68361</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28152</v>
+        <v>27573</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>71543</v>
+        <v>70862</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>84706</v>
+        <v>84121</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>96766</v>
+        <v>95033</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>51390</v>
+        <v>52359</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6233</v>
+        <v>6208</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10299</v>
+        <v>11131</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>24829</v>
+        <v>24346</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>21277</v>
+        <v>21035</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>18864</v>
+        <v>19811</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>23193</v>
+        <v>23095</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>63461</v>
+        <v>63129</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>30225</v>
+        <v>30176</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>29212</v>
+        <v>29648</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>38110</v>
+        <v>38274</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>93995</v>
+        <v>93677</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>56009</v>
+        <v>56572</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20405</v>
+        <v>20384</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30701</v>
+        <v>31810</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47773</v>
+        <v>47089</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>42895</v>
+        <v>44026</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>40248</v>
+        <v>41784</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>45060</v>
+        <v>44525</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>97418</v>
+        <v>98532</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>49865</v>
+        <v>49607</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>54712</v>
+        <v>54128</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>67557</v>
+        <v>67665</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>136427</v>
+        <v>137484</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>87165</v>
+        <v>84489</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9217</v>
+        <v>9216</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7777</v>
+        <v>8025</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>23077</v>
+        <v>23316</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16275</v>
+        <v>17000</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>14678</v>
+        <v>14653</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>16592</v>
+        <v>16550</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>77689</v>
+        <v>73856</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>31159</v>
+        <v>30587</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>27559</v>
+        <v>27424</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>28022</v>
+        <v>27812</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>106624</v>
+        <v>104517</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>52397</v>
+        <v>51382</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24785</v>
+        <v>25230</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23214</v>
+        <v>23247</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>47384</v>
+        <v>48108</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>35723</v>
+        <v>36262</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>32115</v>
+        <v>33039</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>36068</v>
+        <v>35981</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>113325</v>
+        <v>110882</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>50449</v>
+        <v>51228</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>52026</v>
+        <v>50831</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>52744</v>
+        <v>52529</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>150883</v>
+        <v>150335</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>79696</v>
+        <v>78256</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6676</v>
+        <v>6777</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7401</v>
+        <v>7666</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7883</v>
+        <v>7981</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>9396</v>
+        <v>8880</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>16468</v>
+        <v>16625</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>24133</v>
+        <v>23406</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>48350</v>
+        <v>47783</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>22146</v>
+        <v>21532</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>26803</v>
+        <v>26295</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>35237</v>
+        <v>35611</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>61499</v>
+        <v>58563</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>33540</v>
+        <v>33627</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19107</v>
+        <v>19337</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>22874</v>
+        <v>22261</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>21713</v>
+        <v>21865</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>23079</v>
+        <v>22412</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>34572</v>
+        <v>33895</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>44030</v>
+        <v>44602</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>78639</v>
+        <v>77495</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>38166</v>
+        <v>36305</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>49541</v>
+        <v>49129</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>61315</v>
+        <v>61057</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>94976</v>
+        <v>93440</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>53769</v>
+        <v>54075</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3547</v>
+        <v>3472</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>6168</v>
+        <v>6084</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>14363</v>
+        <v>14244</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>10139</v>
+        <v>10828</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>14927</v>
+        <v>15023</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>15342</v>
+        <v>16071</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>52661</v>
+        <v>52268</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>19860</v>
+        <v>19945</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>20974</v>
+        <v>21658</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>25920</v>
+        <v>25936</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>71972</v>
+        <v>71398</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>33788</v>
+        <v>34062</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14231</v>
+        <v>13768</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>21671</v>
+        <v>22264</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>31550</v>
+        <v>30774</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>24010</v>
+        <v>24262</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>33784</v>
+        <v>33864</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>34737</v>
+        <v>36196</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>85153</v>
+        <v>87169</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>34926</v>
+        <v>34654</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>42806</v>
+        <v>44860</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>50978</v>
+        <v>51241</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>111477</v>
+        <v>109512</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>53889</v>
+        <v>55581</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>72294</v>
+        <v>72137</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>84832</v>
+        <v>84998</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>129984</v>
+        <v>130964</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>100078</v>
+        <v>99050</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>132437</v>
+        <v>131288</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>149937</v>
+        <v>148645</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>354857</v>
+        <v>357109</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>158850</v>
+        <v>159963</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>219158</v>
+        <v>214771</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>247905</v>
+        <v>248314</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>496437</v>
+        <v>500292</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>269082</v>
+        <v>271286</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>111367</v>
+        <v>112515</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>126411</v>
+        <v>127064</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>178133</v>
+        <v>181696</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>145596</v>
+        <v>146347</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>181069</v>
+        <v>183388</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>203161</v>
+        <v>201216</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>434049</v>
+        <v>434428</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>202201</v>
+        <v>203868</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>278984</v>
+        <v>279229</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>316904</v>
+        <v>316905</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>587730</v>
+        <v>594454</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>335313</v>
+        <v>334753</v>
       </c>
     </row>
     <row r="36">
